--- a/table_stamp.xlsx
+++ b/table_stamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_AVERS\Python\Сайт\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEBAC69-38DD-42C5-BA48-99F03B1540BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0ECA9D-6475-425D-8F1F-C4761D1CA3CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10785" xr2:uid="{0738F668-DE80-4D07-9493-664D5D559D2E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>'text-center',</t>
   </si>
@@ -39,9 +39,6 @@
     <t>'text-end px-3'</t>
   </si>
   <si>
-    <t>'text-center','','text-center','text-center','text-end px-3','text-end px-3','text-end px-3'</t>
-  </si>
-  <si>
     <t>{7, 35, 10, 18, 10, 10, 10}</t>
   </si>
   <si>
@@ -60,23 +57,71 @@
     <t>title</t>
   </si>
   <si>
-    <t>tbl_class</t>
-  </si>
-  <si>
-    <t>tbl_href</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
     <t>{None, None, None, $$&lt;a class="text-decoration-none"  target="_blank"  href="https://www.scopus.com/authid/detail.uri?authorId= $$, None, None, None}</t>
+  </si>
+  <si>
+    <t>class_col</t>
+  </si>
+  <si>
+    <t>href</t>
+  </si>
+  <si>
+    <t>id_table</t>
+  </si>
+  <si>
+    <t>href_postfix</t>
+  </si>
+  <si>
+    <t>wos</t>
+  </si>
+  <si>
+    <t>ID Автора</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Кафедра</t>
+  </si>
+  <si>
+    <t>ORCID</t>
+  </si>
+  <si>
+    <t>Researcher_id</t>
+  </si>
+  <si>
+    <t>"Кол. док"</t>
+  </si>
+  <si>
+    <t>Цити-рования</t>
+  </si>
+  <si>
+    <t>H-индекс</t>
+  </si>
+  <si>
+    <t>text-center','','text-center','text-center','text-end px-3','text-end px-3','text-end px-3'</t>
+  </si>
+  <si>
+    <t>text-center</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>"text-end px-3"</t>
+  </si>
+  <si>
+    <t>https://orcid.org/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +136,15 @@
       <name val="Consolas"/>
       <family val="3"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,17 +164,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -433,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340E06D3-7D08-464E-AA1E-9D0F1782EB58}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +504,7 @@
     <col min="5" max="5" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,75 +513,239 @@
         <v>'text-center','','text-center','text-center','text-end px-3','text-end px-3','text-end px-3'</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>6</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>14</v>
       </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="str">
+        <f>_xlfn.CONCAT("{",B17,",",B18,",",B19,",",B20,",",B21,",",B22,",",B23,",",B24,"}")</f>
+        <v>{6,29,9,15,14,9,9,9}</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" ref="C25:E25" si="0">_xlfn.CONCAT("{",C17,",",C18,",",C19,",",C20,",",C21,",",C22,",",C23,",",C24,"}")</f>
+        <v>{ID Автора,ФИО,Кафедра,ORCID,Researcher_id,"Кол. док",Цити-рования,H-индекс}</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>{text-center,NULL,text-center,text-center,text-center,"text-end px-3","text-end px-3","text-end px-3"}</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>{NULL,NULL,NULL,https://orcid.org/,NULL,NULL,NULL,NULL}</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E20" r:id="rId1" xr:uid="{2F60D25D-AD1F-49A6-A9EF-B6DE180C1689}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>